--- a/tests/NeoMedPRINT_test_500gram.xlsx
+++ b/tests/NeoMedPRINT_test_500gram.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10807" uniqueCount="3298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10807" uniqueCount="3300">
   <si>
     <t>Verwacht</t>
   </si>
@@ -10118,6 +10118,12 @@
   </si>
   <si>
     <t>1 ml/kg/dag EPIDURAAL</t>
+  </si>
+  <si>
+    <t>bupivacaine 0,25% EPI</t>
+  </si>
+  <si>
+    <t>sufenta 1 mcg/ml bupivac 0,25% EPI</t>
   </si>
 </sst>
 </file>
@@ -10707,7 +10713,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:A26"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11533,7 +11539,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>33</v>
+        <v>3298</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -11548,7 +11554,7 @@
       </c>
       <c r="J7" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>bupivacaine EPIDURAAL</v>
+        <v>bupivacaine 0,25% EPI</v>
       </c>
       <c r="K7" s="17">
         <v>0.5</v>
@@ -11613,7 +11619,7 @@
       </c>
       <c r="AK7" s="16" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="16" t="b">
         <f t="shared" si="10"/>
@@ -14304,7 +14310,7 @@
         <v>0.5</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>56</v>
+        <v>3299</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -14319,7 +14325,7 @@
       </c>
       <c r="J26" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>sufentanil/bupivac EPIDURAAL</v>
+        <v>sufenta 1 mcg/ml bupivac 0,25% EPI</v>
       </c>
       <c r="K26" s="18">
         <v>0.5</v>
@@ -14384,7 +14390,7 @@
       </c>
       <c r="AK26" s="16" t="b">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="16" t="b">
         <f t="shared" si="32"/>
@@ -14454,7 +14460,7 @@
       </c>
       <c r="AK27" s="16" t="b">
         <f t="shared" si="43"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="16" t="b">
         <f t="shared" si="43"/>

--- a/tests/NeoMedPRINT_test_500gram.xlsx
+++ b/tests/NeoMedPRINT_test_500gram.xlsx
@@ -10111,19 +10111,19 @@
     <t>ml/kg/dag</t>
   </si>
   <si>
-    <t>1 ml/kg/dag EPIDURAAL</t>
-  </si>
-  <si>
-    <t>bupivacaine 0,25%</t>
-  </si>
-  <si>
-    <t>sufenta 1 mcg/ml bupivac 0,25%</t>
-  </si>
-  <si>
-    <t>bupivacaine 0,25% EPI</t>
-  </si>
-  <si>
-    <t>sufenta 1 mcg/ml bupivac 0,25% EPI</t>
+    <t>bupivacaine 0,125% EPI</t>
+  </si>
+  <si>
+    <t>bupivacaine 0,125%</t>
+  </si>
+  <si>
+    <t>2 ml/kg/dag EPIDURAAL</t>
+  </si>
+  <si>
+    <t>sufenta 0,5 mcg/ml bupivac 0,125%</t>
+  </si>
+  <si>
+    <t>sufenta 0,5 mcg/ml bupivac 0,125% EPI</t>
   </si>
 </sst>
 </file>
@@ -10368,47 +10368,7 @@
     <cellStyle name="Standaard 2" xfId="1"/>
     <cellStyle name="Standaard 7" xfId="4"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11183,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="14" t="b">
-        <f t="shared" ref="AK4:AK27" si="3">TRIM(J4)=TRIM(W4)</f>
+        <f t="shared" ref="AK4:AK26" si="3">TRIM(J4)=TRIM(W4)</f>
         <v>0</v>
       </c>
       <c r="AL4" s="14" t="b">
@@ -11497,15 +11457,13 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="20">
-        <v>1</v>
-      </c>
+      <c r="H7" s="20"/>
       <c r="I7" s="27">
         <v>0.5</v>
       </c>
@@ -11513,7 +11471,7 @@
         <v>3296</v>
       </c>
       <c r="K7" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>57</v>
@@ -11528,22 +11486,22 @@
         <v>1</v>
       </c>
       <c r="P7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>3294</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>3295</v>
+        <v>3297</v>
       </c>
       <c r="S7" s="8" t="s">
         <v>36</v>
       </c>
       <c r="T7" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U7" s="8">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="V7" s="5"/>
       <c r="AI7" s="14" t="b">
@@ -13853,17 +13811,15 @@
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
-      <c r="H26" s="34">
-        <v>1</v>
-      </c>
+      <c r="H26" s="34"/>
       <c r="I26" s="35">
         <v>0.5</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="K26" s="36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L26" s="36" t="s">
         <v>57</v>
@@ -13878,22 +13834,22 @@
         <v>1</v>
       </c>
       <c r="P26" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="36" t="s">
         <v>3294</v>
       </c>
       <c r="R26" s="36" t="s">
-        <v>3295</v>
+        <v>3297</v>
       </c>
       <c r="S26" s="36" t="s">
         <v>36</v>
       </c>
       <c r="T26" s="36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U26" s="36">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="V26" s="37"/>
       <c r="W26" s="31"/>
@@ -14115,18 +14071,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AI3:AV26">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI27:AV27">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
